--- a/biology/Botanique/Florenciellales/Florenciellales.xlsx
+++ b/biology/Botanique/Florenciellales/Florenciellales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Florenciellales sont un ordre d’algues de la classe des Dictyochophyceae.
 L'espèce type, Florenciella parvula, a été isolée dans la Manche en décembre 2000.
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom de l'ordre, « Florenciellales », vient du genre type Florenciella, donné en hommage à Florence Le Gall[2], l'une des microbiologistes qui isola la culture de l'espèce type Florenciella parvula[note 1], la désinence latine ella, petite, littéralement « petite Florence », en référence à la petite taille de l'organisme.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de l'ordre, « Florenciellales », vient du genre type Florenciella, donné en hommage à Florence Le Gall, l'une des microbiologistes qui isola la culture de l'espèce type Florenciella parvula[note 1], la désinence latine ella, petite, littéralement « petite Florence », en référence à la petite taille de l'organisme.
 </t>
         </is>
       </c>
@@ -543,13 +557,15 @@
           <t>Liste des familles et des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>AlgaeBase                                           (9 février 2022)[1] n’a pas encore attribué de famille aux genres de cet ordre et les met dans la famille provisoire des « Florenciellales incertae sedis », laquelle comprend les genres :
-Florenciella Eikrem[2]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>AlgaeBase                                           (9 février 2022) n’a pas encore attribué de famille aux genres de cet ordre et les met dans la famille provisoire des « Florenciellales incertae sedis », laquelle comprend les genres :
+Florenciella Eikrem
 Pseudochattonella Hosoi-Tanabe &amp; al.
 Verrucophora Eikrem, Edvardsen &amp; Throndsen[note 2]
-Selon World Register of Marine Species                               (9 février 2022)[3]
+Selon World Register of Marine Species                               (9 février 2022)
 Florenciella Eikrem, Romari, Latasa, Le Gall, Throndsen &amp; Vaulot, 2004
 Pseudochattonella Hosoi-Tanabe &amp; al. (Y.Hara &amp; Chihara) Hosoi-Tanabe, Honda, Fukaya, Inagaki &amp; Sako, 2007
 Verrucophora Eikrem, Edvardsen &amp; Throndsen  Eikrem, Edvardsen &amp; Throndsen, 2007
@@ -581,9 +597,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les cellules de l'espèce type Florenciella parvula sont en général, sphériques, mesurent 3 à 6 μm et possèdent deux flagelles nettement inégaux ainsi que deux chloroplastes jaune-brun. Le long flagelle poilu tracte les cellules dans l'eau et le court flagelle est « acronématique »[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les cellules de l'espèce type Florenciella parvula sont en général, sphériques, mesurent 3 à 6 μm et possèdent deux flagelles nettement inégaux ainsi que deux chloroplastes jaune-brun. Le long flagelle poilu tracte les cellules dans l'eau et le court flagelle est « acronématique ».
 </t>
         </is>
       </c>
